--- a/medicine/Enfance/Jason_Fry/Jason_Fry.xlsx
+++ b/medicine/Enfance/Jason_Fry/Jason_Fry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jason Fry, née en 1969 à Charlottesville en Virginie, est un écrivain américain de science-fiction.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,31 +553,258 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série The Jupiter Pirates
-(en) Hunt for the Hydra, 2013
+          <t>Série The Jupiter Pirates</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Hunt for the Hydra, 2013
 (en) Curse of the Iris, 2014
-(en) The Rise of Earth, 2016
-Univers Transformers
-Série Transformers Classified
-Cette série est coécrite avec Ryder Windham (en).
+(en) The Rise of Earth, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jason_Fry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jason_Fry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Transformers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Transformers Classified</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Ryder Windham (en).
 (en) Switching Gears, 2011
 (en) Battle Mountain, 2012
-(en) Satellite of Doom, 2013
-Univers Star Wars
-Série Star Wars Rebels
- Au service de l'Empire, Hachette Jeunesse, coll. « Bibliothèque verte », 2014 ((en) Edge of the Galaxy, 2014)
+(en) Satellite of Doom, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jason_Fry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jason_Fry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Star Wars Rebels</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Au service de l'Empire, Hachette Jeunesse, coll. « Bibliothèque verte », 2014 ((en) Edge of the Galaxy, 2014)
  Des Rebelles dans les rangs, Hachette Jeunesse, coll. « Bibliothèque verte », 2015 ((en) Rebel in the Ranks, 2015)
  Justice impériale, Hachette Jeunesse, coll. « Bibliothèque verte », 2015 ((en) Imperial Justice, 2015)
- L'Académie secrète, Hachette Jeunesse, coll. « Bibliothèque verte », 2015 ((en) The Secret Academy, 2015)
-Novélisation de film
-Les Derniers Jedi, Fleuve, 2018 ((en) The Last Jedi, 2018)  (ISBN 978-2-265-11799-0)Réédition, Pocket, coll. « Star Wars » no 170, 2019  (ISBN 978-2-266-29654-0)
-Romans indépendants
-L'Arme du Jedi, Pocket Jeunesse, 2015 ((en) The Weapon of a Jedi, 2015)
-Cible mouvante, Pocket Jeunesse, 2015 ((en) Moving Target, 2015)Coécrit avec Cecil Castellucci (en).
-Recueil de nouvelles
-(en) The Clone Wars: Stories of Light and Dark, 2020Coécrit avec Zoraida Córdova (en), Rebecca Roanhorse, Yoon Ha Lee, Anne Ursu (en), Lou Anders (en), Tom Angleberger (en), Preeti Chhibber (en), E. Anne Convery, Sarah Beth Durst (en) et Greg van Eekhout (en).
-Univers Minecraft
-Le Voyage, Castelmore, 2020 ((en) The Voyage, 2020)</t>
+ L'Académie secrète, Hachette Jeunesse, coll. « Bibliothèque verte », 2015 ((en) The Secret Academy, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jason_Fry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jason_Fry</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Novélisation de film</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Derniers Jedi, Fleuve, 2018 ((en) The Last Jedi, 2018)  (ISBN 978-2-265-11799-0)Réédition, Pocket, coll. « Star Wars » no 170, 2019  (ISBN 978-2-266-29654-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jason_Fry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jason_Fry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Arme du Jedi, Pocket Jeunesse, 2015 ((en) The Weapon of a Jedi, 2015)
+Cible mouvante, Pocket Jeunesse, 2015 ((en) Moving Target, 2015)Coécrit avec Cecil Castellucci (en).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jason_Fry</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jason_Fry</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) The Clone Wars: Stories of Light and Dark, 2020Coécrit avec Zoraida Córdova (en), Rebecca Roanhorse, Yoon Ha Lee, Anne Ursu (en), Lou Anders (en), Tom Angleberger (en), Preeti Chhibber (en), E. Anne Convery, Sarah Beth Durst (en) et Greg van Eekhout (en).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jason_Fry</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jason_Fry</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Univers Minecraft</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Voyage, Castelmore, 2020 ((en) The Voyage, 2020)</t>
         </is>
       </c>
     </row>
